--- a/model_comparison.xlsx
+++ b/model_comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="standard_case" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="198">
   <si>
     <t xml:space="preserve">configuration</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">T_sec_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dotV_sec_in</t>
   </si>
   <si>
     <t xml:space="preserve">For cases with equally dimensioned pumps, pump1 is used. For cases with differently dimensioned cases pump3 is used as big pump.</t>
@@ -926,9 +929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>473040</xdr:colOff>
+      <xdr:colOff>472680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -942,7 +945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1824120" y="3765240"/>
-          <a:ext cx="274320" cy="257400"/>
+          <a:ext cx="273960" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -963,9 +966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>268200</xdr:colOff>
+      <xdr:colOff>267840</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,7 +982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2314080" y="3787200"/>
-          <a:ext cx="392400" cy="233280"/>
+          <a:ext cx="392040" cy="232920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1336,9 +1339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>206280</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1352,7 +1355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3183120" y="3769200"/>
-          <a:ext cx="274320" cy="257040"/>
+          <a:ext cx="273960" cy="256680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,9 +1376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>412200</xdr:colOff>
+      <xdr:colOff>411840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,7 +1392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1655280" y="2515680"/>
-          <a:ext cx="382320" cy="233640"/>
+          <a:ext cx="381960" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1746,9 +1749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>327240</xdr:colOff>
+      <xdr:colOff>326880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1762,7 +1765,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2498400" y="2497680"/>
-          <a:ext cx="267120" cy="257400"/>
+          <a:ext cx="266760" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1783,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1799,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2996280" y="2515680"/>
-          <a:ext cx="382320" cy="233640"/>
+          <a:ext cx="381960" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1820,9 +1823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>252360</xdr:colOff>
+      <xdr:colOff>252000</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1836,7 +1839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2322720" y="5107680"/>
-          <a:ext cx="367920" cy="232920"/>
+          <a:ext cx="367560" cy="232560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2193,9 +2196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
+      <xdr:colOff>474480</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2209,7 +2212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1843200" y="5107680"/>
-          <a:ext cx="257040" cy="257400"/>
+          <a:ext cx="256680" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2230,9 +2233,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>84960</xdr:colOff>
+      <xdr:colOff>84600</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2246,7 +2249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2968200" y="5107680"/>
-          <a:ext cx="367920" cy="232920"/>
+          <a:ext cx="367560" cy="232560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2603,9 +2606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2619,7 +2622,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3137040" y="6374880"/>
-          <a:ext cx="257400" cy="257400"/>
+          <a:ext cx="257040" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2640,9 +2643,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>421200</xdr:colOff>
+      <xdr:colOff>420840</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2656,7 +2659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1678320" y="6393600"/>
-          <a:ext cx="368280" cy="232920"/>
+          <a:ext cx="367920" cy="232560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2677,9 +2680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>309960</xdr:colOff>
+      <xdr:colOff>309600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2693,7 +2696,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2490840" y="6374880"/>
-          <a:ext cx="257400" cy="257400"/>
+          <a:ext cx="257040" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3050,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3066,7 +3069,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3149280" y="11543040"/>
-          <a:ext cx="312840" cy="312840"/>
+          <a:ext cx="312480" cy="312480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3087,9 +3090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>466920</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3103,7 +3106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1724400" y="11581560"/>
-          <a:ext cx="367920" cy="232920"/>
+          <a:ext cx="367560" cy="232560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3124,9 +3127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>337320</xdr:colOff>
+      <xdr:colOff>336960</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3140,7 +3143,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2573640" y="11599920"/>
-          <a:ext cx="201960" cy="201960"/>
+          <a:ext cx="201600" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3497,9 +3500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3513,7 +3516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3126600" y="10251720"/>
-          <a:ext cx="312840" cy="312840"/>
+          <a:ext cx="312480" cy="312480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,9 +3537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>276840</xdr:colOff>
+      <xdr:colOff>276480</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3550,7 +3553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2346840" y="10290240"/>
-          <a:ext cx="368280" cy="232920"/>
+          <a:ext cx="367920" cy="232560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3571,9 +3574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>480240</xdr:colOff>
+      <xdr:colOff>479880</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3587,7 +3590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1903320" y="10308600"/>
-          <a:ext cx="202320" cy="201960"/>
+          <a:ext cx="201960" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3944,9 +3947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>257400</xdr:colOff>
+      <xdr:colOff>257040</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3960,7 +3963,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3195720" y="15485040"/>
-          <a:ext cx="312840" cy="312840"/>
+          <a:ext cx="312480" cy="312480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3981,9 +3984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>345960</xdr:colOff>
+      <xdr:colOff>345600</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3997,7 +4000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2415960" y="15523560"/>
-          <a:ext cx="368280" cy="232920"/>
+          <a:ext cx="367920" cy="232560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4018,9 +4021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
+      <xdr:colOff>549000</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>80640</xdr:rowOff>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4034,7 +4037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1972440" y="15541920"/>
-          <a:ext cx="202320" cy="201960"/>
+          <a:ext cx="201960" cy="201600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4055,9 +4058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>404280</xdr:colOff>
+      <xdr:colOff>403920</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4067,7 +4070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247200" y="15548760"/>
-          <a:ext cx="408240" cy="344880"/>
+          <a:ext cx="407880" cy="344520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4115,9 +4118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>755280</xdr:colOff>
+      <xdr:colOff>754920</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4127,7 +4130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1972440" y="15567480"/>
-          <a:ext cx="408240" cy="344880"/>
+          <a:ext cx="407880" cy="344520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4175,9 +4178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>512640</xdr:colOff>
+      <xdr:colOff>512280</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4191,7 +4194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1863720" y="14169600"/>
-          <a:ext cx="274320" cy="257400"/>
+          <a:ext cx="273960" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4212,9 +4215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>307800</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4228,7 +4231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2353680" y="14191560"/>
-          <a:ext cx="392400" cy="233280"/>
+          <a:ext cx="392040" cy="232920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4585,9 +4588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>245880</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4601,7 +4604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3222720" y="14173560"/>
-          <a:ext cx="274320" cy="257040"/>
+          <a:ext cx="273960" cy="256680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4622,9 +4625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>622800</xdr:colOff>
+      <xdr:colOff>622440</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4634,7 +4637,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1916280" y="14226840"/>
-          <a:ext cx="331920" cy="259920"/>
+          <a:ext cx="331560" cy="259560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4682,9 +4685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>329040</xdr:colOff>
+      <xdr:colOff>328680</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4694,7 +4697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3248280" y="14226840"/>
-          <a:ext cx="331920" cy="259920"/>
+          <a:ext cx="331560" cy="259560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4742,9 +4745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>431640</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4758,7 +4761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1675080" y="7846560"/>
-          <a:ext cx="382320" cy="233640"/>
+          <a:ext cx="381960" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5115,9 +5118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>347040</xdr:colOff>
+      <xdr:colOff>346680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5131,7 +5134,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2518200" y="7828560"/>
-          <a:ext cx="267120" cy="257400"/>
+          <a:ext cx="266760" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5152,9 +5155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5168,7 +5171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3016080" y="7846560"/>
-          <a:ext cx="382320" cy="233640"/>
+          <a:ext cx="381960" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5777,9 +5780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>181440</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5793,7 +5796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="9052560"/>
-          <a:ext cx="267120" cy="257400"/>
+          <a:ext cx="266760" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5814,9 +5817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261360</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5830,7 +5833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2317680" y="9069840"/>
-          <a:ext cx="382320" cy="233640"/>
+          <a:ext cx="381960" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6103,9 +6106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6119,7 +6122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1813680" y="9052560"/>
-          <a:ext cx="267120" cy="257400"/>
+          <a:ext cx="266760" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6476,9 +6479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>242280</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6492,7 +6495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3154320" y="12970800"/>
-          <a:ext cx="339120" cy="326880"/>
+          <a:ext cx="338760" cy="326520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6513,9 +6516,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285840</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6529,7 +6532,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2342160" y="13009680"/>
-          <a:ext cx="382320" cy="233640"/>
+          <a:ext cx="381960" cy="233280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6802,9 +6805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>463680</xdr:colOff>
+      <xdr:colOff>463320</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6818,7 +6821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1873080" y="13035240"/>
-          <a:ext cx="216000" cy="208080"/>
+          <a:ext cx="215640" cy="207720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6844,9 +6847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
+      <xdr:colOff>154800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6860,7 +6863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1635480" y="1287360"/>
-          <a:ext cx="957960" cy="585720"/>
+          <a:ext cx="957600" cy="585360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7217,9 +7220,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7233,7 +7236,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3744000" y="1242360"/>
-          <a:ext cx="669960" cy="645120"/>
+          <a:ext cx="669600" cy="644760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7254,9 +7257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>257760</xdr:colOff>
+      <xdr:colOff>257400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7270,7 +7273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4989240" y="1287360"/>
-          <a:ext cx="957960" cy="585720"/>
+          <a:ext cx="957600" cy="585360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7292,8 +7295,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7720,8 +7723,8 @@
   </sheetPr>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7915,15 +7918,15 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="P8" s="0" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -7952,90 +7955,90 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -8072,11 +8075,11 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8101,214 +8104,214 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AH25" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI25" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AJ25" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK25" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL25" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM25" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN25" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO25" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AP25" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AQ25" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AR25" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AS25" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AT25" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AU25" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AV25" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AW25" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AX25" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AY25" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AZ25" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BA25" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BB25" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BC25" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BD25" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BE25" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BF25" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BG25" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BH25" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BI25" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BJ25" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BK25" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BL25" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BM25" s="9"/>
       <c r="BN25" s="9"/>
@@ -8321,7 +8324,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="17" t="n">
         <v>-6467.26140281081</v>
@@ -8513,7 +8516,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B27" s="17" t="n">
         <v>-6249.02376853559</v>
@@ -8705,7 +8708,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>-7010.38179077252</v>
@@ -8897,7 +8900,7 @@
     </row>
     <row r="29" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>-6542.18263196608</v>
@@ -9089,7 +9092,7 @@
     </row>
     <row r="30" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B30" s="17" t="n">
         <v>-5685.9671056909</v>
@@ -9281,7 +9284,7 @@
     </row>
     <row r="31" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B31" s="17" t="n">
         <v>-5998.66026003196</v>
@@ -9473,7 +9476,7 @@
     </row>
     <row r="32" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" s="17" t="n">
         <v>-6419.33440148107</v>
@@ -9665,7 +9668,7 @@
     </row>
     <row r="33" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B33" s="17" t="n">
         <v>-6946.11325992503</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="34" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>-9429.33033330336</v>
@@ -10049,7 +10052,7 @@
     </row>
     <row r="35" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B35" s="17" t="n">
         <v>-10547.8249913101</v>
